--- a/swings/2021-11-22/KUCOIN_SPOT_FORM_USDT.xlsx
+++ b/swings/2021-11-22/KUCOIN_SPOT_FORM_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.122078</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.118036</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -819,6 +835,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O7" t="n">
+        <v>0.120106</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +890,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -923,6 +943,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -975,6 +996,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1027,6 +1049,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1081,6 +1104,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.116001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1135,6 +1161,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>0.117631</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1187,6 +1216,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1239,6 +1269,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1293,6 +1324,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.114549</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1347,6 +1381,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O17" t="n">
+        <v>0.115349</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1399,6 +1436,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1453,6 +1491,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>0.106</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1505,6 +1546,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1559,6 +1601,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.111592</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1611,6 +1656,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1665,6 +1711,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.104</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1717,6 +1766,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1769,6 +1819,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1821,6 +1872,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1875,6 +1927,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>0.108822</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1927,6 +1982,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1979,6 +2035,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2033,6 +2090,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>0.094</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2085,6 +2145,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2139,6 +2200,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.101793</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2191,6 +2255,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2245,6 +2310,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.09582</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2297,6 +2365,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2351,6 +2420,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.101</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2403,6 +2475,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2455,6 +2528,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2509,6 +2583,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O39" t="n">
+        <v>0.097901</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2561,6 +2638,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2615,6 +2693,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>0.104</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2667,6 +2748,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2719,6 +2801,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2773,6 +2856,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2827,6 +2913,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2881,6 +2970,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.100397</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2935,6 +3027,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2989,6 +3084,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.101872</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3041,6 +3139,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3093,6 +3192,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3145,6 +3245,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3199,6 +3300,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0.1043</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3253,6 +3357,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.101797</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3305,6 +3412,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3357,6 +3465,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3411,6 +3520,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.1049</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3463,6 +3575,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3515,6 +3628,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3567,6 +3681,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3619,6 +3734,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3671,6 +3787,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3725,6 +3842,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.100349</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3779,6 +3899,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>0.1049</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3833,6 +3956,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0.10213</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3885,6 +4011,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3939,6 +4066,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.1049</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3993,6 +4123,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O67" t="n">
+        <v>0.101241</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4047,6 +4180,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.104899</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4099,6 +4235,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4153,6 +4290,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O70" t="n">
+        <v>0.1025</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4207,6 +4347,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>0.104899</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4259,6 +4402,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4313,6 +4457,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O73" t="n">
+        <v>0.101631</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4365,6 +4512,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4419,6 +4567,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>0.1045</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4471,6 +4622,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4525,6 +4677,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.09949100000000001</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4577,6 +4732,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4631,6 +4787,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O79" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4685,6 +4844,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O80" t="n">
+        <v>0.098051</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4737,6 +4899,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4789,6 +4952,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4843,6 +5007,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O83" t="n">
+        <v>0.102</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4897,6 +5064,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.098</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4949,6 +5119,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5003,6 +5174,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.103929</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5057,6 +5231,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>0.101758</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5111,6 +5288,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.104899</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5163,6 +5343,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5217,6 +5398,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.103501</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5271,6 +5455,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O91" t="n">
+        <v>0.10489</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5323,6 +5510,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5377,6 +5565,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.10176</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5429,6 +5620,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5673,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5533,6 +5726,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5587,6 +5781,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>0.1049</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5836,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.102714</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5745,6 +5946,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5799,6 +6001,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.10389</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6056,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5903,6 +6109,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5957,6 +6164,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.103016</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6009,6 +6219,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6063,6 +6274,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>0.1058</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6115,6 +6329,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6169,6 +6384,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.103632</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6221,6 +6439,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6273,6 +6492,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6327,6 +6547,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O111" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6379,6 +6602,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6431,6 +6655,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6485,6 +6710,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O114" t="n">
+        <v>0.104181</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6539,6 +6767,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O115" t="n">
+        <v>0.105299</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6591,6 +6822,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6643,6 +6875,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6695,6 +6928,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6749,6 +6983,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O119" t="n">
+        <v>0.103602</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7040,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O120" t="n">
+        <v>0.10578</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6857,6 +7097,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.103303</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6911,6 +7154,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O122" t="n">
+        <v>0.104385</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6963,6 +7209,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7017,6 +7264,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>0.103</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7319,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7121,6 +7372,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7173,6 +7425,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7227,6 +7480,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.104895</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7279,6 +7535,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7590,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O130" t="n">
+        <v>0.100001</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7647,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.103166</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.101701</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7495,6 +7761,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O133" t="n">
+        <v>0.102539</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7549,6 +7818,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>0.101985</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7601,6 +7873,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7655,6 +7928,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.102532</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7709,6 +7985,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O137" t="n">
+        <v>0.101</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7761,6 +8040,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7813,6 +8093,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7867,6 +8148,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.1035</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7919,6 +8203,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7971,6 +8256,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8025,6 +8311,9 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O143" t="n">
+        <v>0.1005</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8077,6 +8366,7 @@
           <t>FORMUSDT</t>
         </is>
       </c>
+      <c r="O144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8130,6 +8420,9 @@
         <is>
           <t>FORMUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.101</v>
       </c>
     </row>
   </sheetData>
